--- a/whonet/static/whonet_xl/whonet_data_fields.xlsx
+++ b/whonet/static/whonet_xl/whonet_data_fields.xlsx
@@ -15,7 +15,7 @@
     <sheet name="W2019PHL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">W2019PHL!$B$1:$B$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">W2019PHL!$B$1:$B$166</definedName>
     <definedName name="_xlnm.Database">W2019PHL!#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="173">
   <si>
     <t>COUNTRY_A</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>ABX_DISK</t>
+  </si>
+  <si>
+    <t>LOCAL_SPEC</t>
   </si>
 </sst>
 </file>
@@ -1346,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FF165"/>
+  <dimension ref="A1:FF166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,7 +1673,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>165</v>
@@ -1678,31 +1681,31 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>166</v>
@@ -1710,7 +1713,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>166</v>
@@ -1718,7 +1721,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>166</v>
@@ -1726,39 +1729,39 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>166</v>
@@ -1766,7 +1769,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>166</v>
@@ -1774,7 +1777,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>166</v>
@@ -1782,79 +1785,79 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>166</v>
@@ -1862,7 +1865,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>166</v>
@@ -1870,961 +1873,969 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>170</v>
       </c>
     </row>

--- a/whonet/static/whonet_xl/whonet_data_fields.xlsx
+++ b/whonet/static/whonet_xl/whonet_data_fields.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="175">
   <si>
     <t>COUNTRY_A</t>
   </si>
@@ -542,6 +542,12 @@
   </si>
   <si>
     <t>LOCAL_SPEC</t>
+  </si>
+  <si>
+    <t>FOS_ND200</t>
+  </si>
+  <si>
+    <t>FOS_NM</t>
   </si>
 </sst>
 </file>
@@ -1349,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FF166"/>
+  <dimension ref="A1:FF168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2839,6 +2845,22 @@
         <v>170</v>
       </c>
     </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/whonet/static/whonet_xl/whonet_data_fields.xlsx
+++ b/whonet/static/whonet_xl/whonet_data_fields.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="179">
   <si>
     <t>COUNTRY_A</t>
   </si>
@@ -548,6 +548,18 @@
   </si>
   <si>
     <t>FOS_NM</t>
+  </si>
+  <si>
+    <t>DOX_ND30</t>
+  </si>
+  <si>
+    <t>DOX_NM</t>
+  </si>
+  <si>
+    <t>SSS_ND200</t>
+  </si>
+  <si>
+    <t>SSS_NM</t>
   </si>
 </sst>
 </file>
@@ -1355,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FF168"/>
+  <dimension ref="A1:FF172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,6 +2873,38 @@
         <v>170</v>
       </c>
     </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/whonet/static/whonet_xl/whonet_data_fields.xlsx
+++ b/whonet/static/whonet_xl/whonet_data_fields.xlsx
@@ -529,9 +529,6 @@
     <t>GROWTH</t>
   </si>
   <si>
-    <t>MECA</t>
-  </si>
-  <si>
     <t>AMPC</t>
   </si>
   <si>
@@ -560,6 +557,9 @@
   </si>
   <si>
     <t>SSS_NM</t>
+  </si>
+  <si>
+    <t>X_MECA</t>
   </si>
 </sst>
 </file>
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>165</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>166</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>166</v>
@@ -1902,7 +1902,7 @@
         <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1910,7 +1910,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1942,7 +1942,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1950,7 +1950,7 @@
         <v>44</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
         <v>46</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
         <v>47</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1982,7 +1982,7 @@
         <v>48</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1990,7 +1990,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1998,7 +1998,7 @@
         <v>50</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2006,7 +2006,7 @@
         <v>51</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2014,7 +2014,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2022,7 +2022,7 @@
         <v>53</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2030,7 +2030,7 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2038,7 +2038,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2046,7 +2046,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2054,7 +2054,7 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2062,7 +2062,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2070,7 +2070,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2078,7 +2078,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2086,7 +2086,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2094,7 +2094,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2102,7 +2102,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2110,7 +2110,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2118,7 +2118,7 @@
         <v>65</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2126,7 +2126,7 @@
         <v>66</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2134,7 +2134,7 @@
         <v>67</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2142,7 +2142,7 @@
         <v>68</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2150,7 +2150,7 @@
         <v>69</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2158,7 +2158,7 @@
         <v>70</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2166,7 +2166,7 @@
         <v>71</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2174,7 +2174,7 @@
         <v>72</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2182,7 +2182,7 @@
         <v>73</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2190,7 +2190,7 @@
         <v>74</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2198,7 +2198,7 @@
         <v>75</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2206,7 +2206,7 @@
         <v>76</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2214,7 +2214,7 @@
         <v>77</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2222,7 +2222,7 @@
         <v>78</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2230,7 +2230,7 @@
         <v>79</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2238,7 +2238,7 @@
         <v>80</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2246,7 +2246,7 @@
         <v>81</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2254,7 +2254,7 @@
         <v>82</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2262,7 +2262,7 @@
         <v>83</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2270,7 +2270,7 @@
         <v>84</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2278,7 +2278,7 @@
         <v>85</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2286,7 +2286,7 @@
         <v>86</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2294,7 +2294,7 @@
         <v>87</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2302,7 +2302,7 @@
         <v>88</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2310,7 +2310,7 @@
         <v>89</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2318,7 +2318,7 @@
         <v>90</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2326,7 +2326,7 @@
         <v>91</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2334,7 +2334,7 @@
         <v>92</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2342,7 +2342,7 @@
         <v>93</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2350,7 +2350,7 @@
         <v>94</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2358,7 +2358,7 @@
         <v>95</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,7 +2366,7 @@
         <v>96</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2374,7 +2374,7 @@
         <v>97</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2382,7 +2382,7 @@
         <v>98</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,7 +2390,7 @@
         <v>99</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2398,7 +2398,7 @@
         <v>100</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2406,7 +2406,7 @@
         <v>101</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2414,7 +2414,7 @@
         <v>102</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2422,7 +2422,7 @@
         <v>103</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2430,7 +2430,7 @@
         <v>104</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2438,7 +2438,7 @@
         <v>105</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2446,7 +2446,7 @@
         <v>106</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2454,7 +2454,7 @@
         <v>107</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2462,7 +2462,7 @@
         <v>108</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2470,7 +2470,7 @@
         <v>109</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2478,7 +2478,7 @@
         <v>110</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2486,7 +2486,7 @@
         <v>111</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2494,7 +2494,7 @@
         <v>112</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2502,7 +2502,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2510,7 +2510,7 @@
         <v>114</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2518,7 +2518,7 @@
         <v>115</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2526,7 +2526,7 @@
         <v>116</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2534,7 +2534,7 @@
         <v>117</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2542,7 +2542,7 @@
         <v>118</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2550,7 +2550,7 @@
         <v>119</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2558,7 +2558,7 @@
         <v>120</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2566,7 +2566,7 @@
         <v>121</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2574,7 +2574,7 @@
         <v>122</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2582,7 +2582,7 @@
         <v>123</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2590,7 +2590,7 @@
         <v>124</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2598,7 +2598,7 @@
         <v>125</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2606,7 +2606,7 @@
         <v>126</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2614,7 +2614,7 @@
         <v>127</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2622,7 +2622,7 @@
         <v>128</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2630,7 +2630,7 @@
         <v>129</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2638,7 +2638,7 @@
         <v>130</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2646,7 +2646,7 @@
         <v>131</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2654,7 +2654,7 @@
         <v>132</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2662,7 +2662,7 @@
         <v>133</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2670,7 +2670,7 @@
         <v>134</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2678,7 +2678,7 @@
         <v>135</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2686,7 +2686,7 @@
         <v>136</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2694,7 +2694,7 @@
         <v>137</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2702,7 +2702,7 @@
         <v>138</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2710,7 +2710,7 @@
         <v>139</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2718,7 +2718,7 @@
         <v>140</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -2726,7 +2726,7 @@
         <v>141</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2734,7 +2734,7 @@
         <v>142</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2742,7 +2742,7 @@
         <v>143</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2750,7 +2750,7 @@
         <v>144</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2758,7 +2758,7 @@
         <v>145</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2766,7 +2766,7 @@
         <v>146</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2774,7 +2774,7 @@
         <v>147</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2782,7 +2782,7 @@
         <v>148</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -2790,7 +2790,7 @@
         <v>149</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -2798,7 +2798,7 @@
         <v>150</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2806,7 +2806,7 @@
         <v>151</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2814,7 +2814,7 @@
         <v>152</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2822,7 +2822,7 @@
         <v>153</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
         <v>154</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2838,7 +2838,7 @@
         <v>155</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2846,7 +2846,7 @@
         <v>156</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2854,55 +2854,55 @@
         <v>157</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/whonet/static/whonet_xl/whonet_data_fields.xlsx
+++ b/whonet/static/whonet_xl/whonet_data_fields.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="W2019PHL" sheetId="1" r:id="rId1"/>
+    <sheet name="etest" sheetId="2" r:id="rId2"/>
+    <sheet name="mic" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">W2019PHL!$B$1:$B$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">etest!$A$1:$A$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">W2019PHL!$B$1:$B$235</definedName>
     <definedName name="_xlnm.Database">W2019PHL!#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="243">
   <si>
     <t>COUNTRY_A</t>
   </si>
@@ -560,6 +563,198 @@
   </si>
   <si>
     <t>X_MECA</t>
+  </si>
+  <si>
+    <t>AMK_NE</t>
+  </si>
+  <si>
+    <t>AMC_NE</t>
+  </si>
+  <si>
+    <t>AMP_NE</t>
+  </si>
+  <si>
+    <t>SAM_NE</t>
+  </si>
+  <si>
+    <t>AZM_NE</t>
+  </si>
+  <si>
+    <t>ATM_NE</t>
+  </si>
+  <si>
+    <t>CEC_NE</t>
+  </si>
+  <si>
+    <t>MAN_NE</t>
+  </si>
+  <si>
+    <t>CZO_NE</t>
+  </si>
+  <si>
+    <t>FEP_NE</t>
+  </si>
+  <si>
+    <t>CFM_NE</t>
+  </si>
+  <si>
+    <t>CFP_NE</t>
+  </si>
+  <si>
+    <t>CTX_NE</t>
+  </si>
+  <si>
+    <t>FOX_NE</t>
+  </si>
+  <si>
+    <t>CAZ_NE</t>
+  </si>
+  <si>
+    <t>CRO_NE</t>
+  </si>
+  <si>
+    <t>CXM_NE</t>
+  </si>
+  <si>
+    <t>CXA_NE</t>
+  </si>
+  <si>
+    <t>CEP_NE</t>
+  </si>
+  <si>
+    <t>CHL_NE</t>
+  </si>
+  <si>
+    <t>CIP_NE</t>
+  </si>
+  <si>
+    <t>CLR_NE</t>
+  </si>
+  <si>
+    <t>CLI_NE</t>
+  </si>
+  <si>
+    <t>COL_NE</t>
+  </si>
+  <si>
+    <t>SXT_NE</t>
+  </si>
+  <si>
+    <t>DAP_NE</t>
+  </si>
+  <si>
+    <t>DOR_NE</t>
+  </si>
+  <si>
+    <t>ETP_NE</t>
+  </si>
+  <si>
+    <t>ERY_NE</t>
+  </si>
+  <si>
+    <t>GEN_NE</t>
+  </si>
+  <si>
+    <t>GEH_NE</t>
+  </si>
+  <si>
+    <t>IPM_NE</t>
+  </si>
+  <si>
+    <t>KAN_NE</t>
+  </si>
+  <si>
+    <t>LVX_NE</t>
+  </si>
+  <si>
+    <t>LNZ_NE</t>
+  </si>
+  <si>
+    <t>MEM_NE</t>
+  </si>
+  <si>
+    <t>MNO_NE</t>
+  </si>
+  <si>
+    <t>MFX_NE</t>
+  </si>
+  <si>
+    <t>NAL_NE</t>
+  </si>
+  <si>
+    <t>NET_NE</t>
+  </si>
+  <si>
+    <t>NIT_NE</t>
+  </si>
+  <si>
+    <t>NOR_NE</t>
+  </si>
+  <si>
+    <t>NOV_NE</t>
+  </si>
+  <si>
+    <t>OFX_NE</t>
+  </si>
+  <si>
+    <t>OXA_NE</t>
+  </si>
+  <si>
+    <t>PEN_NE</t>
+  </si>
+  <si>
+    <t>PIP_NE</t>
+  </si>
+  <si>
+    <t>TZP_NE</t>
+  </si>
+  <si>
+    <t>POL_NE</t>
+  </si>
+  <si>
+    <t>QDA_NE</t>
+  </si>
+  <si>
+    <t>RIF_NE</t>
+  </si>
+  <si>
+    <t>SPT_NE</t>
+  </si>
+  <si>
+    <t>STR_NE</t>
+  </si>
+  <si>
+    <t>STH_NE</t>
+  </si>
+  <si>
+    <t>TCY_NE</t>
+  </si>
+  <si>
+    <t>TIC_NE</t>
+  </si>
+  <si>
+    <t>TCC_NE</t>
+  </si>
+  <si>
+    <t>TGC_NE</t>
+  </si>
+  <si>
+    <t>TOB_NE</t>
+  </si>
+  <si>
+    <t>VAN_NE</t>
+  </si>
+  <si>
+    <t>FOS_NE</t>
+  </si>
+  <si>
+    <t>DOX_NE</t>
+  </si>
+  <si>
+    <t>SSS_NE</t>
+  </si>
+  <si>
+    <t>ABX_ETEST</t>
   </si>
 </sst>
 </file>
@@ -1367,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FF172"/>
+  <dimension ref="A1:FF235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2905,6 +3100,1570 @@
         <v>169</v>
       </c>
     </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B235"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/whonet/static/whonet_xl/whonet_data_fields.xlsx
+++ b/whonet/static/whonet_xl/whonet_data_fields.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="W2019PHL" sheetId="1" r:id="rId1"/>
     <sheet name="etest" sheetId="2" r:id="rId2"/>
     <sheet name="mic" sheetId="3" r:id="rId3"/>
+    <sheet name="RIS" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">etest!$A$1:$A$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RIS!$B$1:$B$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">W2019PHL!$B$1:$B$235</definedName>
     <definedName name="_xlnm.Database">W2019PHL!#REF!</definedName>
   </definedNames>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="381">
   <si>
     <t>COUNTRY_A</t>
   </si>
@@ -755,6 +757,420 @@
   </si>
   <si>
     <t>ABX_ETEST</t>
+  </si>
+  <si>
+    <t>AMK_ND30_RIS</t>
+  </si>
+  <si>
+    <t>ABX_DISK_RIS</t>
+  </si>
+  <si>
+    <t>AMC_ND20_RIS</t>
+  </si>
+  <si>
+    <t>AMP_ND10_RIS</t>
+  </si>
+  <si>
+    <t>SAM_ND10_RIS</t>
+  </si>
+  <si>
+    <t>AZM_ND15_RIS</t>
+  </si>
+  <si>
+    <t>ATM_ND30_RIS</t>
+  </si>
+  <si>
+    <t>CEC_ND30_RIS</t>
+  </si>
+  <si>
+    <t>MAN_ND30_RIS</t>
+  </si>
+  <si>
+    <t>CZO_ND30_RIS</t>
+  </si>
+  <si>
+    <t>FEP_ND30_RIS</t>
+  </si>
+  <si>
+    <t>CFM_ND5_RIS</t>
+  </si>
+  <si>
+    <t>CFP_ND75_RIS</t>
+  </si>
+  <si>
+    <t>CTX_ND30_RIS</t>
+  </si>
+  <si>
+    <t>FOX_ND30_RIS</t>
+  </si>
+  <si>
+    <t>CAZ_ND30_RIS</t>
+  </si>
+  <si>
+    <t>CRO_ND30_RIS</t>
+  </si>
+  <si>
+    <t>CXM_ND30_RIS</t>
+  </si>
+  <si>
+    <t>CXA_ND30_RIS</t>
+  </si>
+  <si>
+    <t>CEP_ND30_RIS</t>
+  </si>
+  <si>
+    <t>CHL_ND30_RIS</t>
+  </si>
+  <si>
+    <t>CIP_ND5_RIS</t>
+  </si>
+  <si>
+    <t>CLR_ND15_RIS</t>
+  </si>
+  <si>
+    <t>CLI_ND2_RIS</t>
+  </si>
+  <si>
+    <t>COL_ND10_RIS</t>
+  </si>
+  <si>
+    <t>SXT_ND1_2_RIS</t>
+  </si>
+  <si>
+    <t>DAP_ND30_RIS</t>
+  </si>
+  <si>
+    <t>DOR_ND10_RIS</t>
+  </si>
+  <si>
+    <t>ETP_ND10_RIS</t>
+  </si>
+  <si>
+    <t>ERY_ND15_RIS</t>
+  </si>
+  <si>
+    <t>GEN_ND10_RIS</t>
+  </si>
+  <si>
+    <t>GEH_ND120_RIS</t>
+  </si>
+  <si>
+    <t>IPM_ND10_RIS</t>
+  </si>
+  <si>
+    <t>KAN_ND30_RIS</t>
+  </si>
+  <si>
+    <t>LVX_ND5_RIS</t>
+  </si>
+  <si>
+    <t>LNZ_ND30_RIS</t>
+  </si>
+  <si>
+    <t>MEM_ND10_RIS</t>
+  </si>
+  <si>
+    <t>MNO_ND30_RIS</t>
+  </si>
+  <si>
+    <t>MFX_ND5_RIS</t>
+  </si>
+  <si>
+    <t>NAL_ND30_RIS</t>
+  </si>
+  <si>
+    <t>NET_ND30_RIS</t>
+  </si>
+  <si>
+    <t>NIT_ND300_RIS</t>
+  </si>
+  <si>
+    <t>NOR_ND10_RIS</t>
+  </si>
+  <si>
+    <t>NOV_ND5_RIS</t>
+  </si>
+  <si>
+    <t>OFX_ND5_RIS</t>
+  </si>
+  <si>
+    <t>OXA_ND1_RIS</t>
+  </si>
+  <si>
+    <t>PEN_ND10_RIS</t>
+  </si>
+  <si>
+    <t>PIP_ND100_RIS</t>
+  </si>
+  <si>
+    <t>TZP_ND100_RIS</t>
+  </si>
+  <si>
+    <t>POL_ND300_RIS</t>
+  </si>
+  <si>
+    <t>QDA_ND15_RIS</t>
+  </si>
+  <si>
+    <t>RIF_ND5_RIS</t>
+  </si>
+  <si>
+    <t>SPT_ND100_RIS</t>
+  </si>
+  <si>
+    <t>STR_ND10_RIS</t>
+  </si>
+  <si>
+    <t>STH_ND300_RIS</t>
+  </si>
+  <si>
+    <t>TCY_ND30_RIS</t>
+  </si>
+  <si>
+    <t>TIC_ND75_RIS</t>
+  </si>
+  <si>
+    <t>TCC_ND75_RIS</t>
+  </si>
+  <si>
+    <t>TGC_ND15_RIS</t>
+  </si>
+  <si>
+    <t>TOB_ND10_RIS</t>
+  </si>
+  <si>
+    <t>VAN_ND30_RIS</t>
+  </si>
+  <si>
+    <t>FOS_ND200_RIS</t>
+  </si>
+  <si>
+    <t>DOX_ND30_RIS</t>
+  </si>
+  <si>
+    <t>SSS_ND200_RIS</t>
+  </si>
+  <si>
+    <t>AMK_NM_RIS</t>
+  </si>
+  <si>
+    <t>ABX_MIC_RIS</t>
+  </si>
+  <si>
+    <t>AMC_NM_RIS</t>
+  </si>
+  <si>
+    <t>AMP_NM_RIS</t>
+  </si>
+  <si>
+    <t>SAM_NM_RIS</t>
+  </si>
+  <si>
+    <t>AZM_NM_RIS</t>
+  </si>
+  <si>
+    <t>ATM_NM_RIS</t>
+  </si>
+  <si>
+    <t>CEC_NM_RIS</t>
+  </si>
+  <si>
+    <t>MAN_NM_RIS</t>
+  </si>
+  <si>
+    <t>CZO_NM_RIS</t>
+  </si>
+  <si>
+    <t>FEP_NM_RIS</t>
+  </si>
+  <si>
+    <t>CFM_NM_RIS</t>
+  </si>
+  <si>
+    <t>CFP_NM_RIS</t>
+  </si>
+  <si>
+    <t>CTX_NM_RIS</t>
+  </si>
+  <si>
+    <t>FOX_NM_RIS</t>
+  </si>
+  <si>
+    <t>CAZ_NM_RIS</t>
+  </si>
+  <si>
+    <t>CRO_NM_RIS</t>
+  </si>
+  <si>
+    <t>CXM_NM_RIS</t>
+  </si>
+  <si>
+    <t>CXA_NM_RIS</t>
+  </si>
+  <si>
+    <t>CEP_NM_RIS</t>
+  </si>
+  <si>
+    <t>CHL_NM_RIS</t>
+  </si>
+  <si>
+    <t>CIP_NM_RIS</t>
+  </si>
+  <si>
+    <t>CLR_NM_RIS</t>
+  </si>
+  <si>
+    <t>CLI_NM_RIS</t>
+  </si>
+  <si>
+    <t>COL_NM_RIS</t>
+  </si>
+  <si>
+    <t>SXT_NM_RIS</t>
+  </si>
+  <si>
+    <t>DAP_NM_RIS</t>
+  </si>
+  <si>
+    <t>DOR_NM_RIS</t>
+  </si>
+  <si>
+    <t>ETP_NM_RIS</t>
+  </si>
+  <si>
+    <t>ERY_NM_RIS</t>
+  </si>
+  <si>
+    <t>GEN_NM_RIS</t>
+  </si>
+  <si>
+    <t>GEH_NM_RIS</t>
+  </si>
+  <si>
+    <t>IPM_NM_RIS</t>
+  </si>
+  <si>
+    <t>KAN_NM_RIS</t>
+  </si>
+  <si>
+    <t>LVX_NM_RIS</t>
+  </si>
+  <si>
+    <t>LNZ_NM_RIS</t>
+  </si>
+  <si>
+    <t>MEM_NM_RIS</t>
+  </si>
+  <si>
+    <t>MNO_NM_RIS</t>
+  </si>
+  <si>
+    <t>MFX_NM_RIS</t>
+  </si>
+  <si>
+    <t>NAL_NM_RIS</t>
+  </si>
+  <si>
+    <t>NET_NM_RIS</t>
+  </si>
+  <si>
+    <t>NIT_NM_RIS</t>
+  </si>
+  <si>
+    <t>NOR_NM_RIS</t>
+  </si>
+  <si>
+    <t>NOV_NM_RIS</t>
+  </si>
+  <si>
+    <t>OFX_NM_RIS</t>
+  </si>
+  <si>
+    <t>OXA_NM_RIS</t>
+  </si>
+  <si>
+    <t>PEN_NM_RIS</t>
+  </si>
+  <si>
+    <t>PIP_NM_RIS</t>
+  </si>
+  <si>
+    <t>TZP_NM_RIS</t>
+  </si>
+  <si>
+    <t>POL_NM_RIS</t>
+  </si>
+  <si>
+    <t>QDA_NM_RIS</t>
+  </si>
+  <si>
+    <t>RIF_NM_RIS</t>
+  </si>
+  <si>
+    <t>SPT_NM_RIS</t>
+  </si>
+  <si>
+    <t>STR_NM_RIS</t>
+  </si>
+  <si>
+    <t>STH_NM_RIS</t>
+  </si>
+  <si>
+    <t>TCY_NM_RIS</t>
+  </si>
+  <si>
+    <t>TIC_NM_RIS</t>
+  </si>
+  <si>
+    <t>TCC_NM_RIS</t>
+  </si>
+  <si>
+    <t>TGC_NM_RIS</t>
+  </si>
+  <si>
+    <t>TOB_NM_RIS</t>
+  </si>
+  <si>
+    <t>VAN_NM_RIS</t>
+  </si>
+  <si>
+    <t>FOS_NM_RIS</t>
+  </si>
+  <si>
+    <t>DOX_NM_RIS</t>
+  </si>
+  <si>
+    <t>SSS_NM_RIS</t>
+  </si>
+  <si>
+    <t>ARSRL_PRE</t>
+  </si>
+  <si>
+    <t>ARSRL_FINAL</t>
+  </si>
+  <si>
+    <t>ARSRL_POST</t>
+  </si>
+  <si>
+    <t>X_ESBL_CT</t>
+  </si>
+  <si>
+    <t>X_ESBL_TZ</t>
+  </si>
+  <si>
+    <t>X_IP_IPI</t>
+  </si>
+  <si>
+    <t>X_CN_CNI</t>
+  </si>
+  <si>
+    <t>EDTA</t>
+  </si>
+  <si>
+    <t>DATE_REFER</t>
+  </si>
+  <si>
+    <t>REASON</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1981,7 @@
   <dimension ref="A1:FF235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B235"/>
+      <selection activeCell="B32" sqref="A1:B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3614,7 +4030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4667,4 +5083,2488 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B308"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/whonet/static/whonet_xl/whonet_data_fields.xlsx
+++ b/whonet/static/whonet_xl/whonet_data_fields.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125"/>
   </bookViews>
   <sheets>
     <sheet name="W2019PHL" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">etest!$A$1:$A$64</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RIS!$B$1:$B$300</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">W2019PHL!$B$1:$B$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RIS!$B$1:$B$302</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">W2019PHL!$B$1:$B$238</definedName>
     <definedName name="_xlnm.Database">W2019PHL!#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="384">
   <si>
     <t>COUNTRY_A</t>
   </si>
@@ -1171,6 +1171,15 @@
   </si>
   <si>
     <t>REASON</t>
+  </si>
+  <si>
+    <t>ESCR</t>
+  </si>
+  <si>
+    <t>HLAR</t>
+  </si>
+  <si>
+    <t>HLARB</t>
   </si>
 </sst>
 </file>
@@ -1978,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FF235"/>
+  <dimension ref="A1:FF238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="A1:B235"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,7 +2503,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>381</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>166</v>
@@ -2502,7 +2511,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>167</v>
+        <v>382</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>166</v>
@@ -2510,1039 +2519,1039 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>38</v>
+        <v>383</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>242</v>
@@ -3550,7 +3559,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>242</v>
@@ -3558,7 +3567,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>242</v>
@@ -3566,7 +3575,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>242</v>
@@ -3574,7 +3583,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>242</v>
@@ -3582,7 +3591,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>242</v>
@@ -3590,7 +3599,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>242</v>
@@ -3598,7 +3607,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>242</v>
@@ -3606,7 +3615,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>242</v>
@@ -3614,7 +3623,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>242</v>
@@ -3622,7 +3631,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>242</v>
@@ -3630,7 +3639,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>242</v>
@@ -3638,7 +3647,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>242</v>
@@ -3646,7 +3655,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>242</v>
@@ -3654,7 +3663,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>242</v>
@@ -3662,7 +3671,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>242</v>
@@ -3670,7 +3679,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>242</v>
@@ -3678,7 +3687,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>242</v>
@@ -3686,7 +3695,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>242</v>
@@ -3694,7 +3703,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>242</v>
@@ -3702,7 +3711,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>242</v>
@@ -3710,7 +3719,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>242</v>
@@ -3718,7 +3727,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>242</v>
@@ -3726,7 +3735,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>242</v>
@@ -3734,7 +3743,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>242</v>
@@ -3742,7 +3751,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>242</v>
@@ -3750,7 +3759,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>242</v>
@@ -3758,7 +3767,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>242</v>
@@ -3766,7 +3775,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>242</v>
@@ -3774,7 +3783,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>242</v>
@@ -3782,7 +3791,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>242</v>
@@ -3790,7 +3799,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>242</v>
@@ -3798,7 +3807,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>242</v>
@@ -3806,7 +3815,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>242</v>
@@ -3814,7 +3823,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>242</v>
@@ -3822,7 +3831,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>242</v>
@@ -3830,7 +3839,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>242</v>
@@ -3838,7 +3847,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>242</v>
@@ -3846,7 +3855,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>242</v>
@@ -3854,7 +3863,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>242</v>
@@ -3862,7 +3871,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>242</v>
@@ -3870,7 +3879,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>242</v>
@@ -3878,7 +3887,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>242</v>
@@ -3886,7 +3895,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>242</v>
@@ -3894,7 +3903,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>242</v>
@@ -3902,7 +3911,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>242</v>
@@ -3910,7 +3919,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>242</v>
@@ -3918,7 +3927,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>242</v>
@@ -3926,7 +3935,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>242</v>
@@ -3934,7 +3943,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>242</v>
@@ -3942,7 +3951,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>242</v>
@@ -3950,7 +3959,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>242</v>
@@ -3958,7 +3967,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>242</v>
@@ -3966,7 +3975,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>242</v>
@@ -3974,7 +3983,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>242</v>
@@ -3982,7 +3991,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>242</v>
@@ -3990,7 +3999,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>242</v>
@@ -3998,7 +4007,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>242</v>
@@ -4006,7 +4015,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>242</v>
@@ -4014,14 +4023,38 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>242</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B235"/>
+  <autoFilter ref="B1:B238"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4030,7 +4063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4559,7 +4592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -5087,10 +5120,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:FF310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5355,7 +5388,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
@@ -5363,7 +5396,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -5371,7 +5404,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>178</v>
       </c>
@@ -5379,7 +5412,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>168</v>
       </c>
@@ -5387,7 +5420,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -5395,7 +5428,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
@@ -5403,7 +5436,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -5411,7 +5444,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
@@ -5419,7 +5452,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>30</v>
       </c>
@@ -5427,7 +5460,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
@@ -5435,7 +5468,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>32</v>
       </c>
@@ -5443,7 +5476,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>33</v>
       </c>
@@ -5451,7 +5484,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
@@ -5459,7 +5492,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>35</v>
       </c>
@@ -5467,41 +5500,353 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>36</v>
+        <v>381</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
+      <c r="BE47" s="1"/>
+      <c r="BF47" s="1"/>
+      <c r="BG47" s="1"/>
+      <c r="BH47" s="1"/>
+      <c r="BI47" s="1"/>
+      <c r="BJ47" s="1"/>
+      <c r="BK47" s="1"/>
+      <c r="BL47" s="1"/>
+      <c r="BM47" s="1"/>
+      <c r="BN47" s="1"/>
+      <c r="BO47" s="1"/>
+      <c r="BP47" s="1"/>
+      <c r="BQ47" s="1"/>
+      <c r="BR47" s="1"/>
+      <c r="BS47" s="1"/>
+      <c r="BT47" s="1"/>
+      <c r="BU47" s="1"/>
+      <c r="BV47" s="1"/>
+      <c r="BW47" s="1"/>
+      <c r="BX47" s="1"/>
+      <c r="BY47" s="1"/>
+      <c r="BZ47" s="1"/>
+      <c r="CA47" s="1"/>
+      <c r="CB47" s="1"/>
+      <c r="CC47" s="1"/>
+      <c r="CD47" s="1"/>
+      <c r="CE47" s="1"/>
+      <c r="CF47" s="1"/>
+      <c r="CG47" s="1"/>
+      <c r="CH47" s="1"/>
+      <c r="CI47" s="1"/>
+      <c r="CJ47" s="1"/>
+      <c r="CK47" s="1"/>
+      <c r="CL47" s="1"/>
+      <c r="CM47" s="1"/>
+      <c r="CN47" s="1"/>
+      <c r="CO47" s="1"/>
+      <c r="CP47" s="1"/>
+      <c r="CQ47" s="1"/>
+      <c r="CR47" s="1"/>
+      <c r="CS47" s="1"/>
+      <c r="CT47" s="1"/>
+      <c r="CU47" s="1"/>
+      <c r="CV47" s="1"/>
+      <c r="CW47" s="1"/>
+      <c r="CX47" s="1"/>
+      <c r="CY47" s="1"/>
+      <c r="CZ47" s="1"/>
+      <c r="DA47" s="1"/>
+      <c r="DB47" s="1"/>
+      <c r="DC47" s="1"/>
+      <c r="DD47" s="1"/>
+      <c r="DE47" s="1"/>
+      <c r="DF47" s="1"/>
+      <c r="DG47" s="1"/>
+      <c r="DH47" s="1"/>
+      <c r="DI47" s="1"/>
+      <c r="DJ47" s="1"/>
+      <c r="DK47" s="1"/>
+      <c r="DL47" s="1"/>
+      <c r="DM47" s="1"/>
+      <c r="DN47" s="1"/>
+      <c r="DO47" s="1"/>
+      <c r="DP47" s="1"/>
+      <c r="DQ47" s="1"/>
+      <c r="DR47" s="1"/>
+      <c r="DS47" s="1"/>
+      <c r="DT47" s="1"/>
+      <c r="DU47" s="1"/>
+      <c r="DV47" s="1"/>
+      <c r="DW47" s="1"/>
+      <c r="DX47" s="1"/>
+      <c r="DY47" s="1"/>
+      <c r="DZ47" s="1"/>
+      <c r="EA47" s="1"/>
+      <c r="EB47" s="1"/>
+      <c r="EC47" s="1"/>
+      <c r="ED47" s="1"/>
+      <c r="EE47" s="1"/>
+      <c r="EF47" s="1"/>
+      <c r="EG47" s="1"/>
+      <c r="EH47" s="1"/>
+      <c r="EI47" s="1"/>
+      <c r="EJ47" s="1"/>
+      <c r="EK47" s="1"/>
+      <c r="EL47" s="1"/>
+      <c r="EM47" s="1"/>
+      <c r="EN47" s="1"/>
+      <c r="EO47" s="1"/>
+      <c r="EP47" s="1"/>
+      <c r="EQ47" s="1"/>
+      <c r="ER47" s="1"/>
+      <c r="ES47" s="1"/>
+      <c r="ET47" s="1"/>
+      <c r="EU47" s="1"/>
+      <c r="EV47" s="1"/>
+      <c r="EW47" s="1"/>
+      <c r="EX47" s="1"/>
+      <c r="EY47" s="1"/>
+      <c r="EZ47" s="1"/>
+      <c r="FA47" s="1"/>
+      <c r="FB47" s="1"/>
+      <c r="FC47" s="1"/>
+      <c r="FD47" s="1"/>
+      <c r="FE47" s="1"/>
+      <c r="FF47" s="1"/>
+    </row>
+    <row r="48" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>167</v>
+        <v>382</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
+      <c r="BE48" s="1"/>
+      <c r="BF48" s="1"/>
+      <c r="BG48" s="1"/>
+      <c r="BH48" s="1"/>
+      <c r="BI48" s="1"/>
+      <c r="BJ48" s="1"/>
+      <c r="BK48" s="1"/>
+      <c r="BL48" s="1"/>
+      <c r="BM48" s="1"/>
+      <c r="BN48" s="1"/>
+      <c r="BO48" s="1"/>
+      <c r="BP48" s="1"/>
+      <c r="BQ48" s="1"/>
+      <c r="BR48" s="1"/>
+      <c r="BS48" s="1"/>
+      <c r="BT48" s="1"/>
+      <c r="BU48" s="1"/>
+      <c r="BV48" s="1"/>
+      <c r="BW48" s="1"/>
+      <c r="BX48" s="1"/>
+      <c r="BY48" s="1"/>
+      <c r="BZ48" s="1"/>
+      <c r="CA48" s="1"/>
+      <c r="CB48" s="1"/>
+      <c r="CC48" s="1"/>
+      <c r="CD48" s="1"/>
+      <c r="CE48" s="1"/>
+      <c r="CF48" s="1"/>
+      <c r="CG48" s="1"/>
+      <c r="CH48" s="1"/>
+      <c r="CI48" s="1"/>
+      <c r="CJ48" s="1"/>
+      <c r="CK48" s="1"/>
+      <c r="CL48" s="1"/>
+      <c r="CM48" s="1"/>
+      <c r="CN48" s="1"/>
+      <c r="CO48" s="1"/>
+      <c r="CP48" s="1"/>
+      <c r="CQ48" s="1"/>
+      <c r="CR48" s="1"/>
+      <c r="CS48" s="1"/>
+      <c r="CT48" s="1"/>
+      <c r="CU48" s="1"/>
+      <c r="CV48" s="1"/>
+      <c r="CW48" s="1"/>
+      <c r="CX48" s="1"/>
+      <c r="CY48" s="1"/>
+      <c r="CZ48" s="1"/>
+      <c r="DA48" s="1"/>
+      <c r="DB48" s="1"/>
+      <c r="DC48" s="1"/>
+      <c r="DD48" s="1"/>
+      <c r="DE48" s="1"/>
+      <c r="DF48" s="1"/>
+      <c r="DG48" s="1"/>
+      <c r="DH48" s="1"/>
+      <c r="DI48" s="1"/>
+      <c r="DJ48" s="1"/>
+      <c r="DK48" s="1"/>
+      <c r="DL48" s="1"/>
+      <c r="DM48" s="1"/>
+      <c r="DN48" s="1"/>
+      <c r="DO48" s="1"/>
+      <c r="DP48" s="1"/>
+      <c r="DQ48" s="1"/>
+      <c r="DR48" s="1"/>
+      <c r="DS48" s="1"/>
+      <c r="DT48" s="1"/>
+      <c r="DU48" s="1"/>
+      <c r="DV48" s="1"/>
+      <c r="DW48" s="1"/>
+      <c r="DX48" s="1"/>
+      <c r="DY48" s="1"/>
+      <c r="DZ48" s="1"/>
+      <c r="EA48" s="1"/>
+      <c r="EB48" s="1"/>
+      <c r="EC48" s="1"/>
+      <c r="ED48" s="1"/>
+      <c r="EE48" s="1"/>
+      <c r="EF48" s="1"/>
+      <c r="EG48" s="1"/>
+      <c r="EH48" s="1"/>
+      <c r="EI48" s="1"/>
+      <c r="EJ48" s="1"/>
+      <c r="EK48" s="1"/>
+      <c r="EL48" s="1"/>
+      <c r="EM48" s="1"/>
+      <c r="EN48" s="1"/>
+      <c r="EO48" s="1"/>
+      <c r="EP48" s="1"/>
+      <c r="EQ48" s="1"/>
+      <c r="ER48" s="1"/>
+      <c r="ES48" s="1"/>
+      <c r="ET48" s="1"/>
+      <c r="EU48" s="1"/>
+      <c r="EV48" s="1"/>
+      <c r="EW48" s="1"/>
+      <c r="EX48" s="1"/>
+      <c r="EY48" s="1"/>
+      <c r="EZ48" s="1"/>
+      <c r="FA48" s="1"/>
+      <c r="FB48" s="1"/>
+      <c r="FC48" s="1"/>
+      <c r="FD48" s="1"/>
+      <c r="FE48" s="1"/>
+      <c r="FF48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>170</v>
@@ -5509,7 +5854,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>169</v>
@@ -5517,7 +5862,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>170</v>
@@ -5525,7 +5870,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>169</v>
@@ -5533,7 +5878,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>170</v>
@@ -5541,7 +5886,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>169</v>
@@ -5549,7 +5894,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>170</v>
@@ -5557,7 +5902,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>169</v>
@@ -5565,7 +5910,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>170</v>
@@ -5573,7 +5918,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>169</v>
@@ -5581,7 +5926,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>170</v>
@@ -5589,7 +5934,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>169</v>
@@ -5597,7 +5942,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>170</v>
@@ -5605,7 +5950,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>169</v>
@@ -5613,7 +5958,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>170</v>
@@ -5621,7 +5966,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>169</v>
@@ -5629,7 +5974,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>170</v>
@@ -5637,7 +5982,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>169</v>
@@ -5645,7 +5990,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>170</v>
@@ -5653,7 +5998,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>169</v>
@@ -5661,7 +6006,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>170</v>
@@ -5669,7 +6014,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>169</v>
@@ -5677,7 +6022,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>170</v>
@@ -5685,7 +6030,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>169</v>
@@ -5693,7 +6038,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>170</v>
@@ -5701,7 +6046,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>169</v>
@@ -5709,7 +6054,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>170</v>
@@ -5717,7 +6062,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>169</v>
@@ -5725,7 +6070,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>170</v>
@@ -5733,7 +6078,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>169</v>
@@ -5741,7 +6086,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>170</v>
@@ -5749,7 +6094,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>169</v>
@@ -5757,7 +6102,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>170</v>
@@ -5765,7 +6110,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>169</v>
@@ -5773,7 +6118,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>170</v>
@@ -5781,7 +6126,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>169</v>
@@ -5789,7 +6134,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>170</v>
@@ -5797,7 +6142,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>169</v>
@@ -5805,7 +6150,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>170</v>
@@ -5813,7 +6158,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>169</v>
@@ -5821,7 +6166,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>170</v>
@@ -5829,7 +6174,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>169</v>
@@ -5837,7 +6182,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>170</v>
@@ -5845,7 +6190,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>169</v>
@@ -5853,7 +6198,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>170</v>
@@ -5861,7 +6206,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>169</v>
@@ -5869,7 +6214,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>170</v>
@@ -5877,7 +6222,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>169</v>
@@ -5885,7 +6230,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>170</v>
@@ -5893,7 +6238,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>169</v>
@@ -5901,7 +6246,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>170</v>
@@ -5909,7 +6254,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>169</v>
@@ -5917,7 +6262,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>170</v>
@@ -5925,7 +6270,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>169</v>
@@ -5933,7 +6278,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>170</v>
@@ -5941,7 +6286,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>169</v>
@@ -5949,7 +6294,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>170</v>
@@ -5957,7 +6302,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>169</v>
@@ -5965,7 +6310,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>170</v>
@@ -5973,7 +6318,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>169</v>
@@ -5981,7 +6326,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>170</v>
@@ -5989,7 +6334,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>169</v>
@@ -5997,7 +6342,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>170</v>
@@ -6005,7 +6350,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>169</v>
@@ -6013,7 +6358,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>170</v>
@@ -6021,7 +6366,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>169</v>
@@ -6029,7 +6374,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>170</v>
@@ -6037,7 +6382,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>169</v>
@@ -6045,7 +6390,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>170</v>
@@ -6053,7 +6398,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>169</v>
@@ -6061,7 +6406,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>170</v>
@@ -6069,7 +6414,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>169</v>
@@ -6077,7 +6422,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>170</v>
@@ -6085,7 +6430,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>169</v>
@@ -6093,7 +6438,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>170</v>
@@ -6101,7 +6446,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>169</v>
@@ -6109,7 +6454,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>170</v>
@@ -6117,7 +6462,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>169</v>
@@ -6125,7 +6470,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>170</v>
@@ -6133,7 +6478,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>169</v>
@@ -6141,7 +6486,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>170</v>
@@ -6149,7 +6494,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>169</v>
@@ -6157,7 +6502,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>170</v>
@@ -6165,7 +6510,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>169</v>
@@ -6173,7 +6518,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>170</v>
@@ -6181,7 +6526,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>169</v>
@@ -6189,7 +6534,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>170</v>
@@ -6197,7 +6542,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>169</v>
@@ -6205,7 +6550,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>170</v>
@@ -6213,7 +6558,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>169</v>
@@ -6221,7 +6566,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>170</v>
@@ -6229,7 +6574,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>169</v>
@@ -6237,7 +6582,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>170</v>
@@ -6245,7 +6590,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>169</v>
@@ -6253,7 +6598,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>170</v>
@@ -6261,7 +6606,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>169</v>
@@ -6269,7 +6614,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>170</v>
@@ -6277,7 +6622,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>169</v>
@@ -6285,7 +6630,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>170</v>
@@ -6293,7 +6638,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>169</v>
@@ -6301,7 +6646,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>170</v>
@@ -6309,7 +6654,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>169</v>
@@ -6317,7 +6662,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>170</v>
@@ -6325,7 +6670,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>169</v>
@@ -6333,7 +6678,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>170</v>
@@ -6341,7 +6686,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>169</v>
@@ -6349,7 +6694,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>170</v>
@@ -6357,7 +6702,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>169</v>
@@ -6365,7 +6710,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>170</v>
@@ -6373,7 +6718,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>169</v>
@@ -6381,7 +6726,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>170</v>
@@ -6389,7 +6734,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>169</v>
@@ -6397,7 +6742,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>170</v>
@@ -6405,7 +6750,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>169</v>
@@ -6413,7 +6758,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>170</v>
@@ -6421,7 +6766,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>169</v>
@@ -6429,7 +6774,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>170</v>
@@ -6437,7 +6782,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>169</v>
@@ -6445,7 +6790,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>170</v>
@@ -6453,7 +6798,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>169</v>
@@ -6461,7 +6806,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>170</v>
@@ -6469,7 +6814,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>169</v>
@@ -6477,7 +6822,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>170</v>
@@ -6485,7 +6830,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>169</v>
@@ -6493,23 +6838,23 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>244</v>
@@ -6517,7 +6862,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>244</v>
@@ -6525,7 +6870,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>244</v>
@@ -6533,7 +6878,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>244</v>
@@ -6541,7 +6886,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>244</v>
@@ -6549,7 +6894,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>244</v>
@@ -6557,7 +6902,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>244</v>
@@ -6565,7 +6910,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>244</v>
@@ -6573,7 +6918,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>244</v>
@@ -6581,7 +6926,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>244</v>
@@ -6589,7 +6934,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>244</v>
@@ -6597,7 +6942,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>244</v>
@@ -6605,7 +6950,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>244</v>
@@ -6613,7 +6958,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>244</v>
@@ -6621,7 +6966,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>244</v>
@@ -6629,7 +6974,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>244</v>
@@ -6637,7 +6982,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>244</v>
@@ -6645,7 +6990,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>244</v>
@@ -6653,7 +6998,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>244</v>
@@ -6661,7 +7006,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>244</v>
@@ -6669,7 +7014,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>244</v>
@@ -6677,7 +7022,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>244</v>
@@ -6685,7 +7030,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>244</v>
@@ -6693,7 +7038,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>244</v>
@@ -6701,7 +7046,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>244</v>
@@ -6709,7 +7054,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>244</v>
@@ -6717,7 +7062,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>244</v>
@@ -6725,7 +7070,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>244</v>
@@ -6733,7 +7078,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>244</v>
@@ -6741,7 +7086,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>244</v>
@@ -6749,7 +7094,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>244</v>
@@ -6757,7 +7102,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>244</v>
@@ -6765,7 +7110,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>244</v>
@@ -6773,7 +7118,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>244</v>
@@ -6781,7 +7126,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>244</v>
@@ -6789,7 +7134,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>244</v>
@@ -6797,7 +7142,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>244</v>
@@ -6805,7 +7150,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>244</v>
@@ -6813,7 +7158,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>244</v>
@@ -6821,7 +7166,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>244</v>
@@ -6829,7 +7174,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>244</v>
@@ -6837,7 +7182,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>244</v>
@@ -6845,7 +7190,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>244</v>
@@ -6853,7 +7198,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>244</v>
@@ -6861,7 +7206,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>244</v>
@@ -6869,7 +7214,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>244</v>
@@ -6877,7 +7222,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>244</v>
@@ -6885,7 +7230,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>244</v>
@@ -6893,7 +7238,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>244</v>
@@ -6901,7 +7246,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>244</v>
@@ -6909,7 +7254,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>244</v>
@@ -6917,7 +7262,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>244</v>
@@ -6925,7 +7270,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>244</v>
@@ -6933,7 +7278,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>244</v>
@@ -6941,7 +7286,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>244</v>
@@ -6949,7 +7294,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>244</v>
@@ -6957,7 +7302,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>244</v>
@@ -6965,7 +7310,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>244</v>
@@ -6973,7 +7318,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>244</v>
@@ -6981,7 +7326,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>244</v>
@@ -6989,7 +7334,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>244</v>
@@ -6997,23 +7342,23 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>308</v>
@@ -7021,7 +7366,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>308</v>
@@ -7029,7 +7374,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>308</v>
@@ -7037,7 +7382,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>308</v>
@@ -7045,7 +7390,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>308</v>
@@ -7053,7 +7398,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>308</v>
@@ -7061,7 +7406,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>308</v>
@@ -7069,7 +7414,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>308</v>
@@ -7077,7 +7422,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>308</v>
@@ -7085,7 +7430,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>308</v>
@@ -7093,7 +7438,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>308</v>
@@ -7101,7 +7446,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>308</v>
@@ -7109,7 +7454,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>308</v>
@@ -7117,7 +7462,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>308</v>
@@ -7125,7 +7470,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>308</v>
@@ -7133,7 +7478,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>308</v>
@@ -7141,7 +7486,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>308</v>
@@ -7149,7 +7494,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>308</v>
@@ -7157,7 +7502,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>308</v>
@@ -7165,7 +7510,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>308</v>
@@ -7173,7 +7518,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>308</v>
@@ -7181,7 +7526,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>308</v>
@@ -7189,7 +7534,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>308</v>
@@ -7197,7 +7542,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>308</v>
@@ -7205,7 +7550,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>308</v>
@@ -7213,7 +7558,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>308</v>
@@ -7221,7 +7566,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>308</v>
@@ -7229,7 +7574,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>308</v>
@@ -7237,7 +7582,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>308</v>
@@ -7245,7 +7590,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>308</v>
@@ -7253,7 +7598,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>308</v>
@@ -7261,7 +7606,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>308</v>
@@ -7269,7 +7614,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>308</v>
@@ -7277,7 +7622,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>308</v>
@@ -7285,7 +7630,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>308</v>
@@ -7293,7 +7638,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>308</v>
@@ -7301,7 +7646,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>308</v>
@@ -7309,7 +7654,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>308</v>
@@ -7317,7 +7662,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>308</v>
@@ -7325,7 +7670,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>308</v>
@@ -7333,7 +7678,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>308</v>
@@ -7341,7 +7686,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>308</v>
@@ -7349,7 +7694,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>308</v>
@@ -7357,7 +7702,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>308</v>
@@ -7365,7 +7710,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>308</v>
@@ -7373,7 +7718,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>308</v>
@@ -7381,7 +7726,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>308</v>
@@ -7389,7 +7734,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>308</v>
@@ -7397,7 +7742,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>308</v>
@@ -7405,7 +7750,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>308</v>
@@ -7413,7 +7758,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>308</v>
@@ -7421,7 +7766,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>308</v>
@@ -7429,7 +7774,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>308</v>
@@ -7437,7 +7782,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>308</v>
@@ -7445,7 +7790,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>308</v>
@@ -7453,7 +7798,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>308</v>
@@ -7461,7 +7806,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>308</v>
@@ -7469,7 +7814,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>308</v>
@@ -7477,7 +7822,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>308</v>
@@ -7485,7 +7830,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>308</v>
@@ -7493,7 +7838,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>308</v>
@@ -7501,23 +7846,23 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>166</v>
+        <v>308</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>166</v>
+        <v>308</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>166</v>
@@ -7525,7 +7870,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>166</v>
@@ -7533,7 +7878,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>166</v>
@@ -7541,7 +7886,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>166</v>
@@ -7549,7 +7894,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>166</v>
@@ -7557,14 +7902,30 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>166</v>
       </c>
     </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:B300"/>
+  <autoFilter ref="B1:B302"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/whonet/static/whonet_xl/whonet_data_fields.xlsx
+++ b/whonet/static/whonet_xl/whonet_data_fields.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="W2019PHL" sheetId="1" r:id="rId1"/>
-    <sheet name="etest" sheetId="2" r:id="rId2"/>
-    <sheet name="mic" sheetId="3" r:id="rId3"/>
-    <sheet name="RIS" sheetId="4" r:id="rId4"/>
+    <sheet name="cluster" sheetId="5" r:id="rId2"/>
+    <sheet name="patient_list" sheetId="6" r:id="rId3"/>
+    <sheet name="etest" sheetId="2" r:id="rId4"/>
+    <sheet name="mic" sheetId="3" r:id="rId5"/>
+    <sheet name="RIS" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">etest!$A$1:$A$64</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RIS!$B$1:$B$302</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">etest!$A$1:$A$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">RIS!$B$1:$B$306</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">W2019PHL!$B$1:$B$238</definedName>
     <definedName name="_xlnm.Database">W2019PHL!#REF!</definedName>
   </definedNames>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="452">
   <si>
     <t>COUNTRY_A</t>
   </si>
@@ -1180,6 +1182,210 @@
   </si>
   <si>
     <t>HLARB</t>
+  </si>
+  <si>
+    <t>LAB</t>
+  </si>
+  <si>
+    <t>Cluster number</t>
+  </si>
+  <si>
+    <t>Cluster code</t>
+  </si>
+  <si>
+    <t>Cluster description</t>
+  </si>
+  <si>
+    <t>Cluster start date</t>
+  </si>
+  <si>
+    <t>Cluster end date</t>
+  </si>
+  <si>
+    <t>Date of first signal</t>
+  </si>
+  <si>
+    <t>Date of last signal</t>
+  </si>
+  <si>
+    <t>Recurrence interval - First</t>
+  </si>
+  <si>
+    <t>Recurrence interval - Highest</t>
+  </si>
+  <si>
+    <t>Recurrence interval - Final</t>
+  </si>
+  <si>
+    <t>p-value - First</t>
+  </si>
+  <si>
+    <t>p-value - Lowest</t>
+  </si>
+  <si>
+    <t>p-value - Final</t>
+  </si>
+  <si>
+    <t>Number observed - First</t>
+  </si>
+  <si>
+    <t>Number observed - Maximum</t>
+  </si>
+  <si>
+    <t>Number observed - Final</t>
+  </si>
+  <si>
+    <t>Number observed - Total</t>
+  </si>
+  <si>
+    <t>Number expected - First</t>
+  </si>
+  <si>
+    <t>Number expected - Maximum</t>
+  </si>
+  <si>
+    <t>Number expected - Final</t>
+  </si>
+  <si>
+    <t>Days to first signal</t>
+  </si>
+  <si>
+    <t>Total days in cluster</t>
+  </si>
+  <si>
+    <t>Number of signals</t>
+  </si>
+  <si>
+    <t>Number of locations</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>Identification number</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>Age group</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Location type</t>
+  </si>
+  <si>
+    <t>Specimen number</t>
+  </si>
+  <si>
+    <t>Specimen date</t>
+  </si>
+  <si>
+    <t>Specimen type</t>
+  </si>
+  <si>
+    <t>Organism</t>
+  </si>
+  <si>
+    <t>Beta-lactamase</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Referral Isolates</t>
+  </si>
+  <si>
+    <t>ICR</t>
+  </si>
+  <si>
+    <t>MECA</t>
+  </si>
+  <si>
+    <t>CARB</t>
+  </si>
+  <si>
+    <t>Date of admission</t>
+  </si>
+  <si>
+    <t>Nosocomial infection</t>
+  </si>
+  <si>
+    <t>Urine colony count</t>
+  </si>
+  <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>DIAGNOSIS_TEXT</t>
+  </si>
+  <si>
+    <t>MIX_ORG1</t>
+  </si>
+  <si>
+    <t>MIX_ORG2</t>
+  </si>
+  <si>
+    <t>ANTIGENIC</t>
   </si>
 </sst>
 </file>
@@ -1989,9 +2195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4061,6 +4265,391 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>423</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A42" sqref="A31:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4588,7 +5177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B64"/>
   <sheetViews>
@@ -5118,12 +5707,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FF310"/>
+  <dimension ref="A1:FF314"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5388,7 +5977,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
@@ -5396,7 +5985,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -5404,7 +5993,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>178</v>
       </c>
@@ -5412,7 +6001,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>168</v>
       </c>
@@ -5420,7 +6009,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -5428,7 +6017,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
@@ -5436,7 +6025,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -5444,7 +6033,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
@@ -5452,7 +6041,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>30</v>
       </c>
@@ -5460,7 +6049,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
@@ -5468,7 +6057,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>32</v>
       </c>
@@ -5476,481 +6065,481 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:162" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>35</v>
+        <v>449</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:162" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>381</v>
+        <v>450</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
-      <c r="AG47" s="1"/>
-      <c r="AH47" s="1"/>
-      <c r="AI47" s="1"/>
-      <c r="AJ47" s="1"/>
-      <c r="AK47" s="1"/>
-      <c r="AL47" s="1"/>
-      <c r="AM47" s="1"/>
-      <c r="AN47" s="1"/>
-      <c r="AO47" s="1"/>
-      <c r="AP47" s="1"/>
-      <c r="AQ47" s="1"/>
-      <c r="AR47" s="1"/>
-      <c r="AS47" s="1"/>
-      <c r="AT47" s="1"/>
-      <c r="AU47" s="1"/>
-      <c r="AV47" s="1"/>
-      <c r="AW47" s="1"/>
-      <c r="AX47" s="1"/>
-      <c r="AY47" s="1"/>
-      <c r="AZ47" s="1"/>
-      <c r="BA47" s="1"/>
-      <c r="BB47" s="1"/>
-      <c r="BC47" s="1"/>
-      <c r="BD47" s="1"/>
-      <c r="BE47" s="1"/>
-      <c r="BF47" s="1"/>
-      <c r="BG47" s="1"/>
-      <c r="BH47" s="1"/>
-      <c r="BI47" s="1"/>
-      <c r="BJ47" s="1"/>
-      <c r="BK47" s="1"/>
-      <c r="BL47" s="1"/>
-      <c r="BM47" s="1"/>
-      <c r="BN47" s="1"/>
-      <c r="BO47" s="1"/>
-      <c r="BP47" s="1"/>
-      <c r="BQ47" s="1"/>
-      <c r="BR47" s="1"/>
-      <c r="BS47" s="1"/>
-      <c r="BT47" s="1"/>
-      <c r="BU47" s="1"/>
-      <c r="BV47" s="1"/>
-      <c r="BW47" s="1"/>
-      <c r="BX47" s="1"/>
-      <c r="BY47" s="1"/>
-      <c r="BZ47" s="1"/>
-      <c r="CA47" s="1"/>
-      <c r="CB47" s="1"/>
-      <c r="CC47" s="1"/>
-      <c r="CD47" s="1"/>
-      <c r="CE47" s="1"/>
-      <c r="CF47" s="1"/>
-      <c r="CG47" s="1"/>
-      <c r="CH47" s="1"/>
-      <c r="CI47" s="1"/>
-      <c r="CJ47" s="1"/>
-      <c r="CK47" s="1"/>
-      <c r="CL47" s="1"/>
-      <c r="CM47" s="1"/>
-      <c r="CN47" s="1"/>
-      <c r="CO47" s="1"/>
-      <c r="CP47" s="1"/>
-      <c r="CQ47" s="1"/>
-      <c r="CR47" s="1"/>
-      <c r="CS47" s="1"/>
-      <c r="CT47" s="1"/>
-      <c r="CU47" s="1"/>
-      <c r="CV47" s="1"/>
-      <c r="CW47" s="1"/>
-      <c r="CX47" s="1"/>
-      <c r="CY47" s="1"/>
-      <c r="CZ47" s="1"/>
-      <c r="DA47" s="1"/>
-      <c r="DB47" s="1"/>
-      <c r="DC47" s="1"/>
-      <c r="DD47" s="1"/>
-      <c r="DE47" s="1"/>
-      <c r="DF47" s="1"/>
-      <c r="DG47" s="1"/>
-      <c r="DH47" s="1"/>
-      <c r="DI47" s="1"/>
-      <c r="DJ47" s="1"/>
-      <c r="DK47" s="1"/>
-      <c r="DL47" s="1"/>
-      <c r="DM47" s="1"/>
-      <c r="DN47" s="1"/>
-      <c r="DO47" s="1"/>
-      <c r="DP47" s="1"/>
-      <c r="DQ47" s="1"/>
-      <c r="DR47" s="1"/>
-      <c r="DS47" s="1"/>
-      <c r="DT47" s="1"/>
-      <c r="DU47" s="1"/>
-      <c r="DV47" s="1"/>
-      <c r="DW47" s="1"/>
-      <c r="DX47" s="1"/>
-      <c r="DY47" s="1"/>
-      <c r="DZ47" s="1"/>
-      <c r="EA47" s="1"/>
-      <c r="EB47" s="1"/>
-      <c r="EC47" s="1"/>
-      <c r="ED47" s="1"/>
-      <c r="EE47" s="1"/>
-      <c r="EF47" s="1"/>
-      <c r="EG47" s="1"/>
-      <c r="EH47" s="1"/>
-      <c r="EI47" s="1"/>
-      <c r="EJ47" s="1"/>
-      <c r="EK47" s="1"/>
-      <c r="EL47" s="1"/>
-      <c r="EM47" s="1"/>
-      <c r="EN47" s="1"/>
-      <c r="EO47" s="1"/>
-      <c r="EP47" s="1"/>
-      <c r="EQ47" s="1"/>
-      <c r="ER47" s="1"/>
-      <c r="ES47" s="1"/>
-      <c r="ET47" s="1"/>
-      <c r="EU47" s="1"/>
-      <c r="EV47" s="1"/>
-      <c r="EW47" s="1"/>
-      <c r="EX47" s="1"/>
-      <c r="EY47" s="1"/>
-      <c r="EZ47" s="1"/>
-      <c r="FA47" s="1"/>
-      <c r="FB47" s="1"/>
-      <c r="FC47" s="1"/>
-      <c r="FD47" s="1"/>
-      <c r="FE47" s="1"/>
-      <c r="FF47" s="1"/>
-    </row>
-    <row r="48" spans="1:162" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>382</v>
+        <v>451</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-      <c r="AG48" s="1"/>
-      <c r="AH48" s="1"/>
-      <c r="AI48" s="1"/>
-      <c r="AJ48" s="1"/>
-      <c r="AK48" s="1"/>
-      <c r="AL48" s="1"/>
-      <c r="AM48" s="1"/>
-      <c r="AN48" s="1"/>
-      <c r="AO48" s="1"/>
-      <c r="AP48" s="1"/>
-      <c r="AQ48" s="1"/>
-      <c r="AR48" s="1"/>
-      <c r="AS48" s="1"/>
-      <c r="AT48" s="1"/>
-      <c r="AU48" s="1"/>
-      <c r="AV48" s="1"/>
-      <c r="AW48" s="1"/>
-      <c r="AX48" s="1"/>
-      <c r="AY48" s="1"/>
-      <c r="AZ48" s="1"/>
-      <c r="BA48" s="1"/>
-      <c r="BB48" s="1"/>
-      <c r="BC48" s="1"/>
-      <c r="BD48" s="1"/>
-      <c r="BE48" s="1"/>
-      <c r="BF48" s="1"/>
-      <c r="BG48" s="1"/>
-      <c r="BH48" s="1"/>
-      <c r="BI48" s="1"/>
-      <c r="BJ48" s="1"/>
-      <c r="BK48" s="1"/>
-      <c r="BL48" s="1"/>
-      <c r="BM48" s="1"/>
-      <c r="BN48" s="1"/>
-      <c r="BO48" s="1"/>
-      <c r="BP48" s="1"/>
-      <c r="BQ48" s="1"/>
-      <c r="BR48" s="1"/>
-      <c r="BS48" s="1"/>
-      <c r="BT48" s="1"/>
-      <c r="BU48" s="1"/>
-      <c r="BV48" s="1"/>
-      <c r="BW48" s="1"/>
-      <c r="BX48" s="1"/>
-      <c r="BY48" s="1"/>
-      <c r="BZ48" s="1"/>
-      <c r="CA48" s="1"/>
-      <c r="CB48" s="1"/>
-      <c r="CC48" s="1"/>
-      <c r="CD48" s="1"/>
-      <c r="CE48" s="1"/>
-      <c r="CF48" s="1"/>
-      <c r="CG48" s="1"/>
-      <c r="CH48" s="1"/>
-      <c r="CI48" s="1"/>
-      <c r="CJ48" s="1"/>
-      <c r="CK48" s="1"/>
-      <c r="CL48" s="1"/>
-      <c r="CM48" s="1"/>
-      <c r="CN48" s="1"/>
-      <c r="CO48" s="1"/>
-      <c r="CP48" s="1"/>
-      <c r="CQ48" s="1"/>
-      <c r="CR48" s="1"/>
-      <c r="CS48" s="1"/>
-      <c r="CT48" s="1"/>
-      <c r="CU48" s="1"/>
-      <c r="CV48" s="1"/>
-      <c r="CW48" s="1"/>
-      <c r="CX48" s="1"/>
-      <c r="CY48" s="1"/>
-      <c r="CZ48" s="1"/>
-      <c r="DA48" s="1"/>
-      <c r="DB48" s="1"/>
-      <c r="DC48" s="1"/>
-      <c r="DD48" s="1"/>
-      <c r="DE48" s="1"/>
-      <c r="DF48" s="1"/>
-      <c r="DG48" s="1"/>
-      <c r="DH48" s="1"/>
-      <c r="DI48" s="1"/>
-      <c r="DJ48" s="1"/>
-      <c r="DK48" s="1"/>
-      <c r="DL48" s="1"/>
-      <c r="DM48" s="1"/>
-      <c r="DN48" s="1"/>
-      <c r="DO48" s="1"/>
-      <c r="DP48" s="1"/>
-      <c r="DQ48" s="1"/>
-      <c r="DR48" s="1"/>
-      <c r="DS48" s="1"/>
-      <c r="DT48" s="1"/>
-      <c r="DU48" s="1"/>
-      <c r="DV48" s="1"/>
-      <c r="DW48" s="1"/>
-      <c r="DX48" s="1"/>
-      <c r="DY48" s="1"/>
-      <c r="DZ48" s="1"/>
-      <c r="EA48" s="1"/>
-      <c r="EB48" s="1"/>
-      <c r="EC48" s="1"/>
-      <c r="ED48" s="1"/>
-      <c r="EE48" s="1"/>
-      <c r="EF48" s="1"/>
-      <c r="EG48" s="1"/>
-      <c r="EH48" s="1"/>
-      <c r="EI48" s="1"/>
-      <c r="EJ48" s="1"/>
-      <c r="EK48" s="1"/>
-      <c r="EL48" s="1"/>
-      <c r="EM48" s="1"/>
-      <c r="EN48" s="1"/>
-      <c r="EO48" s="1"/>
-      <c r="EP48" s="1"/>
-      <c r="EQ48" s="1"/>
-      <c r="ER48" s="1"/>
-      <c r="ES48" s="1"/>
-      <c r="ET48" s="1"/>
-      <c r="EU48" s="1"/>
-      <c r="EV48" s="1"/>
-      <c r="EW48" s="1"/>
-      <c r="EX48" s="1"/>
-      <c r="EY48" s="1"/>
-      <c r="EZ48" s="1"/>
-      <c r="FA48" s="1"/>
-      <c r="FB48" s="1"/>
-      <c r="FC48" s="1"/>
-      <c r="FD48" s="1"/>
-      <c r="FE48" s="1"/>
-      <c r="FF48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+      <c r="BD51" s="1"/>
+      <c r="BE51" s="1"/>
+      <c r="BF51" s="1"/>
+      <c r="BG51" s="1"/>
+      <c r="BH51" s="1"/>
+      <c r="BI51" s="1"/>
+      <c r="BJ51" s="1"/>
+      <c r="BK51" s="1"/>
+      <c r="BL51" s="1"/>
+      <c r="BM51" s="1"/>
+      <c r="BN51" s="1"/>
+      <c r="BO51" s="1"/>
+      <c r="BP51" s="1"/>
+      <c r="BQ51" s="1"/>
+      <c r="BR51" s="1"/>
+      <c r="BS51" s="1"/>
+      <c r="BT51" s="1"/>
+      <c r="BU51" s="1"/>
+      <c r="BV51" s="1"/>
+      <c r="BW51" s="1"/>
+      <c r="BX51" s="1"/>
+      <c r="BY51" s="1"/>
+      <c r="BZ51" s="1"/>
+      <c r="CA51" s="1"/>
+      <c r="CB51" s="1"/>
+      <c r="CC51" s="1"/>
+      <c r="CD51" s="1"/>
+      <c r="CE51" s="1"/>
+      <c r="CF51" s="1"/>
+      <c r="CG51" s="1"/>
+      <c r="CH51" s="1"/>
+      <c r="CI51" s="1"/>
+      <c r="CJ51" s="1"/>
+      <c r="CK51" s="1"/>
+      <c r="CL51" s="1"/>
+      <c r="CM51" s="1"/>
+      <c r="CN51" s="1"/>
+      <c r="CO51" s="1"/>
+      <c r="CP51" s="1"/>
+      <c r="CQ51" s="1"/>
+      <c r="CR51" s="1"/>
+      <c r="CS51" s="1"/>
+      <c r="CT51" s="1"/>
+      <c r="CU51" s="1"/>
+      <c r="CV51" s="1"/>
+      <c r="CW51" s="1"/>
+      <c r="CX51" s="1"/>
+      <c r="CY51" s="1"/>
+      <c r="CZ51" s="1"/>
+      <c r="DA51" s="1"/>
+      <c r="DB51" s="1"/>
+      <c r="DC51" s="1"/>
+      <c r="DD51" s="1"/>
+      <c r="DE51" s="1"/>
+      <c r="DF51" s="1"/>
+      <c r="DG51" s="1"/>
+      <c r="DH51" s="1"/>
+      <c r="DI51" s="1"/>
+      <c r="DJ51" s="1"/>
+      <c r="DK51" s="1"/>
+      <c r="DL51" s="1"/>
+      <c r="DM51" s="1"/>
+      <c r="DN51" s="1"/>
+      <c r="DO51" s="1"/>
+      <c r="DP51" s="1"/>
+      <c r="DQ51" s="1"/>
+      <c r="DR51" s="1"/>
+      <c r="DS51" s="1"/>
+      <c r="DT51" s="1"/>
+      <c r="DU51" s="1"/>
+      <c r="DV51" s="1"/>
+      <c r="DW51" s="1"/>
+      <c r="DX51" s="1"/>
+      <c r="DY51" s="1"/>
+      <c r="DZ51" s="1"/>
+      <c r="EA51" s="1"/>
+      <c r="EB51" s="1"/>
+      <c r="EC51" s="1"/>
+      <c r="ED51" s="1"/>
+      <c r="EE51" s="1"/>
+      <c r="EF51" s="1"/>
+      <c r="EG51" s="1"/>
+      <c r="EH51" s="1"/>
+      <c r="EI51" s="1"/>
+      <c r="EJ51" s="1"/>
+      <c r="EK51" s="1"/>
+      <c r="EL51" s="1"/>
+      <c r="EM51" s="1"/>
+      <c r="EN51" s="1"/>
+      <c r="EO51" s="1"/>
+      <c r="EP51" s="1"/>
+      <c r="EQ51" s="1"/>
+      <c r="ER51" s="1"/>
+      <c r="ES51" s="1"/>
+      <c r="ET51" s="1"/>
+      <c r="EU51" s="1"/>
+      <c r="EV51" s="1"/>
+      <c r="EW51" s="1"/>
+      <c r="EX51" s="1"/>
+      <c r="EY51" s="1"/>
+      <c r="EZ51" s="1"/>
+      <c r="FA51" s="1"/>
+      <c r="FB51" s="1"/>
+      <c r="FC51" s="1"/>
+      <c r="FD51" s="1"/>
+      <c r="FE51" s="1"/>
+      <c r="FF51" s="1"/>
+    </row>
+    <row r="52" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
+      <c r="BE52" s="1"/>
+      <c r="BF52" s="1"/>
+      <c r="BG52" s="1"/>
+      <c r="BH52" s="1"/>
+      <c r="BI52" s="1"/>
+      <c r="BJ52" s="1"/>
+      <c r="BK52" s="1"/>
+      <c r="BL52" s="1"/>
+      <c r="BM52" s="1"/>
+      <c r="BN52" s="1"/>
+      <c r="BO52" s="1"/>
+      <c r="BP52" s="1"/>
+      <c r="BQ52" s="1"/>
+      <c r="BR52" s="1"/>
+      <c r="BS52" s="1"/>
+      <c r="BT52" s="1"/>
+      <c r="BU52" s="1"/>
+      <c r="BV52" s="1"/>
+      <c r="BW52" s="1"/>
+      <c r="BX52" s="1"/>
+      <c r="BY52" s="1"/>
+      <c r="BZ52" s="1"/>
+      <c r="CA52" s="1"/>
+      <c r="CB52" s="1"/>
+      <c r="CC52" s="1"/>
+      <c r="CD52" s="1"/>
+      <c r="CE52" s="1"/>
+      <c r="CF52" s="1"/>
+      <c r="CG52" s="1"/>
+      <c r="CH52" s="1"/>
+      <c r="CI52" s="1"/>
+      <c r="CJ52" s="1"/>
+      <c r="CK52" s="1"/>
+      <c r="CL52" s="1"/>
+      <c r="CM52" s="1"/>
+      <c r="CN52" s="1"/>
+      <c r="CO52" s="1"/>
+      <c r="CP52" s="1"/>
+      <c r="CQ52" s="1"/>
+      <c r="CR52" s="1"/>
+      <c r="CS52" s="1"/>
+      <c r="CT52" s="1"/>
+      <c r="CU52" s="1"/>
+      <c r="CV52" s="1"/>
+      <c r="CW52" s="1"/>
+      <c r="CX52" s="1"/>
+      <c r="CY52" s="1"/>
+      <c r="CZ52" s="1"/>
+      <c r="DA52" s="1"/>
+      <c r="DB52" s="1"/>
+      <c r="DC52" s="1"/>
+      <c r="DD52" s="1"/>
+      <c r="DE52" s="1"/>
+      <c r="DF52" s="1"/>
+      <c r="DG52" s="1"/>
+      <c r="DH52" s="1"/>
+      <c r="DI52" s="1"/>
+      <c r="DJ52" s="1"/>
+      <c r="DK52" s="1"/>
+      <c r="DL52" s="1"/>
+      <c r="DM52" s="1"/>
+      <c r="DN52" s="1"/>
+      <c r="DO52" s="1"/>
+      <c r="DP52" s="1"/>
+      <c r="DQ52" s="1"/>
+      <c r="DR52" s="1"/>
+      <c r="DS52" s="1"/>
+      <c r="DT52" s="1"/>
+      <c r="DU52" s="1"/>
+      <c r="DV52" s="1"/>
+      <c r="DW52" s="1"/>
+      <c r="DX52" s="1"/>
+      <c r="DY52" s="1"/>
+      <c r="DZ52" s="1"/>
+      <c r="EA52" s="1"/>
+      <c r="EB52" s="1"/>
+      <c r="EC52" s="1"/>
+      <c r="ED52" s="1"/>
+      <c r="EE52" s="1"/>
+      <c r="EF52" s="1"/>
+      <c r="EG52" s="1"/>
+      <c r="EH52" s="1"/>
+      <c r="EI52" s="1"/>
+      <c r="EJ52" s="1"/>
+      <c r="EK52" s="1"/>
+      <c r="EL52" s="1"/>
+      <c r="EM52" s="1"/>
+      <c r="EN52" s="1"/>
+      <c r="EO52" s="1"/>
+      <c r="EP52" s="1"/>
+      <c r="EQ52" s="1"/>
+      <c r="ER52" s="1"/>
+      <c r="ES52" s="1"/>
+      <c r="ET52" s="1"/>
+      <c r="EU52" s="1"/>
+      <c r="EV52" s="1"/>
+      <c r="EW52" s="1"/>
+      <c r="EX52" s="1"/>
+      <c r="EY52" s="1"/>
+      <c r="EZ52" s="1"/>
+      <c r="FA52" s="1"/>
+      <c r="FB52" s="1"/>
+      <c r="FC52" s="1"/>
+      <c r="FD52" s="1"/>
+      <c r="FE52" s="1"/>
+      <c r="FF52" s="1"/>
+    </row>
+    <row r="53" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="B55" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="B57" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="B62" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="B63" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:162" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>169</v>
@@ -5958,7 +6547,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>170</v>
@@ -5966,7 +6555,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>169</v>
@@ -5974,7 +6563,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>170</v>
@@ -5982,7 +6571,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>169</v>
@@ -5990,7 +6579,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>170</v>
@@ -5998,7 +6587,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>169</v>
@@ -6006,7 +6595,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>170</v>
@@ -6014,7 +6603,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>169</v>
@@ -6022,7 +6611,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>170</v>
@@ -6030,7 +6619,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>169</v>
@@ -6038,7 +6627,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>170</v>
@@ -6046,7 +6635,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>169</v>
@@ -6054,7 +6643,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>170</v>
@@ -6062,7 +6651,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>169</v>
@@ -6070,7 +6659,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>170</v>
@@ -6078,7 +6667,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>169</v>
@@ -6086,7 +6675,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>170</v>
@@ -6094,7 +6683,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>169</v>
@@ -6102,7 +6691,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>170</v>
@@ -6110,7 +6699,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>169</v>
@@ -6118,7 +6707,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>170</v>
@@ -6126,7 +6715,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>169</v>
@@ -6134,7 +6723,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>170</v>
@@ -6142,7 +6731,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>169</v>
@@ -6150,7 +6739,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>170</v>
@@ -6158,7 +6747,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>169</v>
@@ -6166,7 +6755,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>170</v>
@@ -6174,7 +6763,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>169</v>
@@ -6182,7 +6771,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>170</v>
@@ -6190,7 +6779,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>169</v>
@@ -6198,7 +6787,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>170</v>
@@ -6206,7 +6795,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>169</v>
@@ -6214,7 +6803,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>170</v>
@@ -6222,7 +6811,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>169</v>
@@ -6230,7 +6819,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>170</v>
@@ -6238,7 +6827,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>169</v>
@@ -6246,7 +6835,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>170</v>
@@ -6254,7 +6843,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>169</v>
@@ -6262,7 +6851,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>170</v>
@@ -6270,7 +6859,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>169</v>
@@ -6278,7 +6867,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>170</v>
@@ -6286,7 +6875,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>169</v>
@@ -6294,7 +6883,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>170</v>
@@ -6302,7 +6891,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>169</v>
@@ -6310,7 +6899,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>170</v>
@@ -6318,7 +6907,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>169</v>
@@ -6326,7 +6915,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>170</v>
@@ -6334,7 +6923,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>169</v>
@@ -6342,7 +6931,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>170</v>
@@ -6350,7 +6939,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>169</v>
@@ -6358,7 +6947,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>170</v>
@@ -6366,7 +6955,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>169</v>
@@ -6374,7 +6963,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>170</v>
@@ -6382,7 +6971,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>169</v>
@@ -6390,7 +6979,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>170</v>
@@ -6398,7 +6987,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>169</v>
@@ -6406,7 +6995,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>170</v>
@@ -6414,7 +7003,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>169</v>
@@ -6422,7 +7011,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>170</v>
@@ -6430,7 +7019,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>169</v>
@@ -6438,7 +7027,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>170</v>
@@ -6446,7 +7035,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>169</v>
@@ -6454,7 +7043,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>170</v>
@@ -6462,7 +7051,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>169</v>
@@ -6470,7 +7059,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>170</v>
@@ -6478,7 +7067,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>169</v>
@@ -6486,7 +7075,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>170</v>
@@ -6494,7 +7083,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>169</v>
@@ -6502,7 +7091,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>170</v>
@@ -6510,7 +7099,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>169</v>
@@ -6518,7 +7107,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>170</v>
@@ -6526,7 +7115,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>169</v>
@@ -6534,7 +7123,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>170</v>
@@ -6542,7 +7131,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>169</v>
@@ -6550,7 +7139,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>170</v>
@@ -6558,7 +7147,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>169</v>
@@ -6566,7 +7155,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>170</v>
@@ -6574,7 +7163,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>169</v>
@@ -6582,7 +7171,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>170</v>
@@ -6590,7 +7179,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>169</v>
@@ -6598,7 +7187,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>170</v>
@@ -6606,7 +7195,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>169</v>
@@ -6614,7 +7203,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>170</v>
@@ -6622,7 +7211,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>169</v>
@@ -6630,7 +7219,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>170</v>
@@ -6638,7 +7227,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>169</v>
@@ -6646,7 +7235,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>170</v>
@@ -6654,7 +7243,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>169</v>
@@ -6662,7 +7251,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>170</v>
@@ -6670,7 +7259,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>169</v>
@@ -6678,7 +7267,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>170</v>
@@ -6686,7 +7275,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>169</v>
@@ -6694,7 +7283,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>170</v>
@@ -6702,7 +7291,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>169</v>
@@ -6710,7 +7299,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>170</v>
@@ -6718,7 +7307,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>169</v>
@@ -6726,7 +7315,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>170</v>
@@ -6734,7 +7323,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>169</v>
@@ -6742,7 +7331,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>170</v>
@@ -6750,7 +7339,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>169</v>
@@ -6758,7 +7347,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>170</v>
@@ -6766,7 +7355,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>169</v>
@@ -6774,7 +7363,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>170</v>
@@ -6782,7 +7371,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>169</v>
@@ -6790,7 +7379,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>170</v>
@@ -6798,7 +7387,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>169</v>
@@ -6806,7 +7395,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>170</v>
@@ -6814,7 +7403,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>169</v>
@@ -6822,7 +7411,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>170</v>
@@ -6830,7 +7419,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>169</v>
@@ -6838,7 +7427,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>170</v>
@@ -6846,7 +7435,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>169</v>
@@ -6854,39 +7443,39 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>247</v>
+        <v>177</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>244</v>
@@ -6894,7 +7483,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>244</v>
@@ -6902,7 +7491,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>244</v>
@@ -6910,7 +7499,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>244</v>
@@ -6918,7 +7507,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>244</v>
@@ -6926,7 +7515,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>244</v>
@@ -6934,7 +7523,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>244</v>
@@ -6942,7 +7531,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>244</v>
@@ -6950,7 +7539,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>244</v>
@@ -6958,7 +7547,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>244</v>
@@ -6966,7 +7555,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>244</v>
@@ -6974,7 +7563,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>244</v>
@@ -6982,7 +7571,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>244</v>
@@ -6990,7 +7579,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>244</v>
@@ -6998,7 +7587,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>244</v>
@@ -7006,7 +7595,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>244</v>
@@ -7014,7 +7603,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>244</v>
@@ -7022,7 +7611,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>244</v>
@@ -7030,7 +7619,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>244</v>
@@ -7038,7 +7627,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>244</v>
@@ -7046,7 +7635,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>244</v>
@@ -7054,7 +7643,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>244</v>
@@ -7062,7 +7651,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>244</v>
@@ -7070,7 +7659,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>244</v>
@@ -7078,7 +7667,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>244</v>
@@ -7086,7 +7675,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>244</v>
@@ -7094,7 +7683,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>244</v>
@@ -7102,7 +7691,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>244</v>
@@ -7110,7 +7699,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>244</v>
@@ -7118,7 +7707,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>244</v>
@@ -7126,7 +7715,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>244</v>
@@ -7134,7 +7723,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>244</v>
@@ -7142,7 +7731,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>244</v>
@@ -7150,7 +7739,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>244</v>
@@ -7158,7 +7747,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>244</v>
@@ -7166,7 +7755,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>244</v>
@@ -7174,7 +7763,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>244</v>
@@ -7182,7 +7771,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>244</v>
@@ -7190,7 +7779,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>244</v>
@@ -7198,7 +7787,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>244</v>
@@ -7206,7 +7795,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>244</v>
@@ -7214,7 +7803,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>244</v>
@@ -7222,7 +7811,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>244</v>
@@ -7230,7 +7819,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>244</v>
@@ -7238,7 +7827,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>244</v>
@@ -7246,7 +7835,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>244</v>
@@ -7254,7 +7843,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>244</v>
@@ -7262,7 +7851,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>244</v>
@@ -7270,7 +7859,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>244</v>
@@ -7278,7 +7867,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>244</v>
@@ -7286,7 +7875,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>244</v>
@@ -7294,7 +7883,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>244</v>
@@ -7302,7 +7891,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>244</v>
@@ -7310,7 +7899,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>244</v>
@@ -7318,7 +7907,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>244</v>
@@ -7326,7 +7915,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>244</v>
@@ -7334,7 +7923,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>244</v>
@@ -7342,7 +7931,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>244</v>
@@ -7350,7 +7939,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>244</v>
@@ -7358,39 +7947,39 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>308</v>
@@ -7398,7 +7987,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>308</v>
@@ -7406,7 +7995,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>308</v>
@@ -7414,7 +8003,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>308</v>
@@ -7422,7 +8011,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>308</v>
@@ -7430,7 +8019,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>308</v>
@@ -7438,7 +8027,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>308</v>
@@ -7446,7 +8035,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>308</v>
@@ -7454,7 +8043,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>308</v>
@@ -7462,7 +8051,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>308</v>
@@ -7470,7 +8059,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>308</v>
@@ -7478,7 +8067,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>308</v>
@@ -7486,7 +8075,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>308</v>
@@ -7494,7 +8083,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>308</v>
@@ -7502,7 +8091,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>308</v>
@@ -7510,7 +8099,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>308</v>
@@ -7518,7 +8107,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>308</v>
@@ -7526,7 +8115,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>308</v>
@@ -7534,7 +8123,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>308</v>
@@ -7542,7 +8131,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>308</v>
@@ -7550,7 +8139,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>308</v>
@@ -7558,7 +8147,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>308</v>
@@ -7566,7 +8155,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>308</v>
@@ -7574,7 +8163,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>308</v>
@@ -7582,7 +8171,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>308</v>
@@ -7590,7 +8179,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>308</v>
@@ -7598,7 +8187,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>308</v>
@@ -7606,7 +8195,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>308</v>
@@ -7614,7 +8203,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>308</v>
@@ -7622,7 +8211,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>308</v>
@@ -7630,7 +8219,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>308</v>
@@ -7638,7 +8227,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>308</v>
@@ -7646,7 +8235,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>308</v>
@@ -7654,7 +8243,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>308</v>
@@ -7662,7 +8251,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>308</v>
@@ -7670,7 +8259,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>308</v>
@@ -7678,7 +8267,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>308</v>
@@ -7686,7 +8275,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>308</v>
@@ -7694,7 +8283,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>308</v>
@@ -7702,7 +8291,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>308</v>
@@ -7710,7 +8299,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>308</v>
@@ -7718,7 +8307,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>308</v>
@@ -7726,7 +8315,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>308</v>
@@ -7734,7 +8323,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>308</v>
@@ -7742,7 +8331,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>308</v>
@@ -7750,7 +8339,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>308</v>
@@ -7758,7 +8347,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>308</v>
@@ -7766,7 +8355,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>308</v>
@@ -7774,7 +8363,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>308</v>
@@ -7782,7 +8371,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>308</v>
@@ -7790,7 +8379,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>308</v>
@@ -7798,7 +8387,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>308</v>
@@ -7806,7 +8395,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>308</v>
@@ -7814,7 +8403,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>308</v>
@@ -7822,7 +8411,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>308</v>
@@ -7830,7 +8419,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>308</v>
@@ -7838,7 +8427,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>308</v>
@@ -7846,7 +8435,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>308</v>
@@ -7854,7 +8443,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>308</v>
@@ -7862,39 +8451,39 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>166</v>
+        <v>308</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>166</v>
+        <v>308</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>166</v>
+        <v>308</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>166</v>
+        <v>308</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>166</v>
@@ -7902,7 +8491,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>166</v>
@@ -7910,7 +8499,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>166</v>
@@ -7918,14 +8507,46 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>166</v>
       </c>
     </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:B302"/>
+  <autoFilter ref="B1:B306"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/whonet/static/whonet_xl/whonet_data_fields.xlsx
+++ b/whonet/static/whonet_xl/whonet_data_fields.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\dmu_sys\whonet\static\whonet_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125"/>
   </bookViews>
   <sheets>
     <sheet name="W2019PHL" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">etest!$A$1:$A$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">RIS!$B$1:$B$306</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">W2019PHL!$B$1:$B$238</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">W2019PHL!$B$1:$B$254</definedName>
     <definedName name="_xlnm.Database">W2019PHL!#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="469">
   <si>
     <t>COUNTRY_A</t>
   </si>
@@ -1386,12 +1386,63 @@
   </si>
   <si>
     <t>ANTIGENIC</t>
+  </si>
+  <si>
+    <t>FDC_ND</t>
+  </si>
+  <si>
+    <t>FDC_NM</t>
+  </si>
+  <si>
+    <t>CZA_ND30</t>
+  </si>
+  <si>
+    <t>CZA_NM</t>
+  </si>
+  <si>
+    <t>IMR_ND10</t>
+  </si>
+  <si>
+    <t>IMR_NM</t>
+  </si>
+  <si>
+    <t>PLZ_ND</t>
+  </si>
+  <si>
+    <t>PLZ_NM</t>
+  </si>
+  <si>
+    <t>CZT_ND30</t>
+  </si>
+  <si>
+    <t>CZT_NM</t>
+  </si>
+  <si>
+    <t>MEV_ND20</t>
+  </si>
+  <si>
+    <t>MEV_NM</t>
+  </si>
+  <si>
+    <t>TZD_ND</t>
+  </si>
+  <si>
+    <t>TZD_NM</t>
+  </si>
+  <si>
+    <t>AMX_ND30</t>
+  </si>
+  <si>
+    <t>AMX_NM</t>
+  </si>
+  <si>
+    <t>ABX_NM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2193,9 +2244,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FF238"/>
+  <dimension ref="A1:FF254"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2811,7 +2862,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>46</v>
+        <v>466</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>170</v>
@@ -2819,15 +2870,15 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>47</v>
+        <v>467</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>169</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>170</v>
@@ -2835,7 +2886,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>169</v>
@@ -2843,7 +2894,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>170</v>
@@ -2851,7 +2902,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>169</v>
@@ -2859,7 +2910,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>170</v>
@@ -2867,7 +2918,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>169</v>
@@ -2875,7 +2926,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>170</v>
@@ -2883,7 +2934,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>169</v>
@@ -2891,7 +2942,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>170</v>
@@ -2899,7 +2950,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>169</v>
@@ -2907,7 +2958,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>170</v>
@@ -2915,7 +2966,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>169</v>
@@ -2923,7 +2974,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>170</v>
@@ -2931,7 +2982,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>169</v>
@@ -2939,7 +2990,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>170</v>
@@ -2947,7 +2998,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>169</v>
@@ -2955,7 +3006,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>170</v>
@@ -2963,7 +3014,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>169</v>
@@ -2971,7 +3022,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>170</v>
@@ -2979,7 +3030,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>169</v>
@@ -2987,7 +3038,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>170</v>
@@ -2995,7 +3046,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>169</v>
@@ -3003,7 +3054,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>170</v>
@@ -3011,7 +3062,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>169</v>
@@ -3019,7 +3070,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>170</v>
@@ -3027,7 +3078,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>169</v>
@@ -3035,7 +3086,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>170</v>
@@ -3043,7 +3094,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>169</v>
@@ -3051,7 +3102,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>170</v>
@@ -3059,7 +3110,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>169</v>
@@ -3067,7 +3118,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>170</v>
@@ -3075,7 +3126,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>169</v>
@@ -3083,7 +3134,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>170</v>
@@ -3091,7 +3142,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>169</v>
@@ -3099,7 +3150,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>170</v>
@@ -3107,7 +3158,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>169</v>
@@ -3115,7 +3166,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>170</v>
@@ -3123,7 +3174,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>169</v>
@@ -3131,7 +3182,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>170</v>
@@ -3139,7 +3190,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>169</v>
@@ -3147,7 +3198,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>88</v>
+        <v>454</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>170</v>
@@ -3155,7 +3206,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>89</v>
+        <v>455</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>169</v>
@@ -3163,7 +3214,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>90</v>
+        <v>460</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>170</v>
@@ -3171,7 +3222,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>91</v>
+        <v>461</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>169</v>
@@ -3179,7 +3230,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>170</v>
@@ -3187,7 +3238,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>169</v>
@@ -3195,7 +3246,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>170</v>
@@ -3203,7 +3254,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>169</v>
@@ -3211,7 +3262,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>170</v>
@@ -3219,7 +3270,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>169</v>
@@ -3227,7 +3278,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>170</v>
@@ -3235,7 +3286,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>169</v>
@@ -3243,7 +3294,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>170</v>
@@ -3251,7 +3302,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>169</v>
@@ -3259,7 +3310,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>102</v>
+        <v>452</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>170</v>
@@ -3267,7 +3318,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>103</v>
+        <v>453</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>169</v>
@@ -3275,7 +3326,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>170</v>
@@ -3283,7 +3334,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>169</v>
@@ -3291,7 +3342,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>170</v>
@@ -3299,7 +3350,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>169</v>
@@ -3307,7 +3358,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>170</v>
@@ -3315,7 +3366,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>169</v>
@@ -3323,7 +3374,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>110</v>
+        <v>456</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>170</v>
@@ -3331,7 +3382,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>111</v>
+        <v>457</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>169</v>
@@ -3339,7 +3390,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>170</v>
@@ -3347,7 +3398,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>169</v>
@@ -3355,7 +3406,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>170</v>
@@ -3363,7 +3414,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>169</v>
@@ -3371,7 +3422,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>170</v>
@@ -3379,7 +3430,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>169</v>
@@ -3387,7 +3438,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>170</v>
@@ -3395,7 +3446,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>169</v>
@@ -3403,7 +3454,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>120</v>
+        <v>462</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>170</v>
@@ -3411,7 +3462,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>121</v>
+        <v>463</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>169</v>
@@ -3419,7 +3470,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>170</v>
@@ -3427,7 +3478,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>169</v>
@@ -3435,7 +3486,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>170</v>
@@ -3443,7 +3494,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>169</v>
@@ -3451,7 +3502,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>170</v>
@@ -3459,7 +3510,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>169</v>
@@ -3467,7 +3518,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>170</v>
@@ -3475,7 +3526,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>169</v>
@@ -3483,7 +3534,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>170</v>
@@ -3491,7 +3542,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>169</v>
@@ -3499,7 +3550,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>170</v>
@@ -3507,7 +3558,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>169</v>
@@ -3515,7 +3566,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>170</v>
@@ -3523,7 +3574,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>169</v>
@@ -3531,7 +3582,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>170</v>
@@ -3539,7 +3590,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>169</v>
@@ -3547,7 +3598,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>170</v>
@@ -3555,7 +3606,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>169</v>
@@ -3563,7 +3614,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>170</v>
@@ -3571,7 +3622,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>169</v>
@@ -3579,7 +3630,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>170</v>
@@ -3587,7 +3638,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>169</v>
@@ -3595,7 +3646,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>144</v>
+        <v>458</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>170</v>
@@ -3603,7 +3654,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>145</v>
+        <v>459</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>169</v>
@@ -3611,7 +3662,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>170</v>
@@ -3619,7 +3670,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>169</v>
@@ -3627,7 +3678,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>170</v>
@@ -3635,7 +3686,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>169</v>
@@ -3643,7 +3694,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>170</v>
@@ -3651,7 +3702,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>169</v>
@@ -3659,7 +3710,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>170</v>
@@ -3667,7 +3718,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>169</v>
@@ -3675,7 +3726,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>170</v>
@@ -3683,7 +3734,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>169</v>
@@ -3691,7 +3742,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>170</v>
@@ -3699,7 +3750,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>169</v>
@@ -3707,7 +3758,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>170</v>
@@ -3715,7 +3766,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>169</v>
@@ -3723,7 +3774,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>170</v>
@@ -3731,7 +3782,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>169</v>
@@ -3739,7 +3790,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>170</v>
@@ -3747,7 +3798,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>169</v>
@@ -3755,135 +3806,135 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>185</v>
+        <v>464</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>186</v>
+        <v>465</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>242</v>
@@ -3891,7 +3942,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>242</v>
@@ -3899,7 +3950,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>242</v>
@@ -3907,7 +3958,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>242</v>
@@ -3915,7 +3966,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>242</v>
@@ -3923,7 +3974,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>242</v>
@@ -3931,7 +3982,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>242</v>
@@ -3939,7 +3990,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>242</v>
@@ -3947,7 +3998,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>242</v>
@@ -3955,7 +4006,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>242</v>
@@ -3963,7 +4014,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>242</v>
@@ -3971,7 +4022,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>242</v>
@@ -3979,7 +4030,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>242</v>
@@ -3987,7 +4038,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>242</v>
@@ -3995,7 +4046,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>242</v>
@@ -4003,7 +4054,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>242</v>
@@ -4011,7 +4062,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>242</v>
@@ -4019,7 +4070,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>242</v>
@@ -4027,7 +4078,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>242</v>
@@ -4035,7 +4086,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>242</v>
@@ -4043,7 +4094,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>242</v>
@@ -4051,7 +4102,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>242</v>
@@ -4059,7 +4110,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>242</v>
@@ -4067,7 +4118,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>242</v>
@@ -4075,7 +4126,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>242</v>
@@ -4083,7 +4134,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>242</v>
@@ -4091,7 +4142,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>242</v>
@@ -4099,7 +4150,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>242</v>
@@ -4107,7 +4158,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>242</v>
@@ -4115,7 +4166,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>242</v>
@@ -4123,7 +4174,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>242</v>
@@ -4131,7 +4182,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>242</v>
@@ -4139,7 +4190,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>242</v>
@@ -4147,7 +4198,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>242</v>
@@ -4155,7 +4206,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>242</v>
@@ -4163,7 +4214,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>242</v>
@@ -4171,7 +4222,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>242</v>
@@ -4179,7 +4230,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>242</v>
@@ -4187,7 +4238,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>242</v>
@@ -4195,7 +4246,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>242</v>
@@ -4203,7 +4254,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>242</v>
@@ -4211,7 +4262,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>242</v>
@@ -4219,7 +4270,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>242</v>
@@ -4227,7 +4278,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>242</v>
@@ -4235,7 +4286,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>242</v>
@@ -4243,7 +4294,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>242</v>
@@ -4251,14 +4302,142 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B254" s="1" t="s">
         <v>242</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B238"/>
+  <autoFilter ref="B1:B254"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4652,7 +4831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5711,7 +5890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
